--- a/Order Online/SKU buat andra updated maret 2021.xlsx
+++ b/Order Online/SKU buat andra updated maret 2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nutrifoodindonesia-my.sharepoint.com/personal/steven_nathanael_nutrifood_co_id/Documents/Documents/Python/Data/Master Data/MD min/Order Online/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\Order Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{A2988C63-8E76-4E8D-BE83-5E58081421ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BDC24FC-F2F1-4347-AC54-B0E718FCD07B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756FED5E-1A65-4E34-846A-79582B080F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="747">
   <si>
     <t>title</t>
   </si>
@@ -2286,6 +2286,12 @@
   </si>
   <si>
     <t>Buy 1 Get 1 - L-Men Gain Mass Klepon Latte</t>
+  </si>
+  <si>
+    <t>NutriSari Jeruk Nipis Jahe 40 sch</t>
+  </si>
+  <si>
+    <t>2102500320 (CI160) TS SWT 160S IND</t>
   </si>
 </sst>
 </file>
@@ -16266,10 +16272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E510"/>
+  <dimension ref="A1:E512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H507" sqref="H507"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C512" sqref="C512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24951,6 +24957,40 @@
         <v>743</v>
       </c>
     </row>
+    <row r="511" spans="1:5">
+      <c r="A511">
+        <v>1101505453</v>
+      </c>
+      <c r="B511" t="s">
+        <v>745</v>
+      </c>
+      <c r="C511" s="3">
+        <v>62000</v>
+      </c>
+      <c r="D511">
+        <v>45000</v>
+      </c>
+      <c r="E511">
+        <v>1101505453</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512">
+        <v>2102500320</v>
+      </c>
+      <c r="B512" t="s">
+        <v>746</v>
+      </c>
+      <c r="C512" s="7">
+        <v>75900</v>
+      </c>
+      <c r="D512" s="7">
+        <v>76590</v>
+      </c>
+      <c r="E512">
+        <v>2102500320</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24962,7 +25002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C575"/>
   <sheetViews>
-    <sheetView topLeftCell="A550" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A567" sqref="A567"/>
     </sheetView>
   </sheetViews>
@@ -31307,8 +31347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -36567,9 +36607,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36705,19 +36748,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B16CB2-4938-4E1C-AE1D-3AE7D885C7BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39D06040-37D9-4EC0-838C-890481F092B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36741,9 +36780,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39D06040-37D9-4EC0-838C-890481F092B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B16CB2-4938-4E1C-AE1D-3AE7D885C7BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Order Online/SKU buat andra updated maret 2021.xlsx
+++ b/Order Online/SKU buat andra updated maret 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\Order Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756FED5E-1A65-4E34-846A-79582B080F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D8C47-478F-4AE3-97A7-F336487075AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="749">
   <si>
     <t>title</t>
   </si>
@@ -2292,6 +2292,12 @@
   </si>
   <si>
     <t>2102500320 (CI160) TS SWT 160S IND</t>
+  </si>
+  <si>
+    <t>(Near ED) - NutriSari Lychee Tea 40sch</t>
+  </si>
+  <si>
+    <t>(E)1102070453</t>
   </si>
 </sst>
 </file>
@@ -16272,10 +16278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E512"/>
+  <dimension ref="A1:E513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C512" sqref="C512"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E513" sqref="E513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24989,6 +24995,23 @@
       </c>
       <c r="E512">
         <v>2102500320</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" t="s">
+        <v>748</v>
+      </c>
+      <c r="B513" t="s">
+        <v>747</v>
+      </c>
+      <c r="C513" s="3">
+        <v>62000</v>
+      </c>
+      <c r="D513">
+        <v>22300</v>
+      </c>
+      <c r="E513" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/Order Online/SKU buat andra updated maret 2021.xlsx
+++ b/Order Online/SKU buat andra updated maret 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\Order Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D8C47-478F-4AE3-97A7-F336487075AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E462A5D-DB4B-4FE0-882B-3066D66A5CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="761">
   <si>
     <t>title</t>
   </si>
@@ -2298,6 +2298,42 @@
   </si>
   <si>
     <t>(E)1102070453</t>
+  </si>
+  <si>
+    <t>BUY 2 GET 2 - NutriSari RTD Squeezed Orange 200 ml - Minuman Jeruk Peras Vitamin C</t>
+  </si>
+  <si>
+    <t>1N01402250P4</t>
+  </si>
+  <si>
+    <t>2T00803164P2</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Orange Cocoa 4 Sachet - Minuman Cokelat Jeruk Nikmat Tanpa Gula Pasir</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo School Strawberry 10 Sachet - Susu Tinggi Kalsium Lebih Rendah Lemak &amp; Gula</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo School 3+ Strawberry Pop 400g</t>
+  </si>
+  <si>
+    <t>2HF0111003P2</t>
+  </si>
+  <si>
+    <t>2HF0113021P2</t>
+  </si>
+  <si>
+    <t>1N01402250P24</t>
+  </si>
+  <si>
+    <t>BUY 12 GET 12 - NutriSari RTD Squeezed Orange 200 ml - Minuman Jeruk Peras Vitamin C</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Peanut Almond Butter Spread Jam 300 gram</t>
+  </si>
+  <si>
+    <t>2T02703229P2</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2483,8 +2519,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2670,6 +2713,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2847,7 +2896,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2874,6 +2923,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -16270,7 +16323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16278,10 +16331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E513"/>
+  <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E513" sqref="E513"/>
+    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C520" sqref="C520:D520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25012,6 +25065,125 @@
       </c>
       <c r="E513" t="s">
         <v>748</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="B514" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C514" s="3">
+        <v>118000</v>
+      </c>
+      <c r="D514">
+        <v>92400</v>
+      </c>
+      <c r="E514" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="B515" t="s">
+        <v>749</v>
+      </c>
+      <c r="C515" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D515">
+        <v>23088</v>
+      </c>
+      <c r="E515" s="12" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" t="s">
+        <v>751</v>
+      </c>
+      <c r="B516" t="s">
+        <v>752</v>
+      </c>
+      <c r="C516" s="14">
+        <v>40000</v>
+      </c>
+      <c r="D516" s="15">
+        <v>33300</v>
+      </c>
+      <c r="E516" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" t="s">
+        <v>755</v>
+      </c>
+      <c r="B517" t="s">
+        <v>753</v>
+      </c>
+      <c r="C517" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D517">
+        <v>66600</v>
+      </c>
+      <c r="E517" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" t="s">
+        <v>756</v>
+      </c>
+      <c r="B518" t="s">
+        <v>754</v>
+      </c>
+      <c r="C518" s="3">
+        <v>199800</v>
+      </c>
+      <c r="D518">
+        <v>99900</v>
+      </c>
+      <c r="E518" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B519" t="s">
+        <v>758</v>
+      </c>
+      <c r="C519" s="14">
+        <v>240000</v>
+      </c>
+      <c r="D519" s="15">
+        <v>99900</v>
+      </c>
+      <c r="E519" s="12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" t="s">
+        <v>760</v>
+      </c>
+      <c r="B520" t="s">
+        <v>759</v>
+      </c>
+      <c r="C520" s="14">
+        <v>184800</v>
+      </c>
+      <c r="D520" s="15">
+        <v>92400</v>
+      </c>
+      <c r="E520" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/Order Online/SKU buat andra updated maret 2021.xlsx
+++ b/Order Online/SKU buat andra updated maret 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\Order Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E462A5D-DB4B-4FE0-882B-3066D66A5CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924F1EA3-404F-4E7A-AD73-B3665D0424CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="857">
   <si>
     <t>title</t>
   </si>
@@ -2334,6 +2334,294 @@
   </si>
   <si>
     <t>2T02703229P2</t>
+  </si>
+  <si>
+    <t>(Near ED) - HiLo Active Chocolate 750gr</t>
+  </si>
+  <si>
+    <t>(E)2101452190</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo Teen Original 400g - Susu Tinggi Kalsium Lebih Rendah Lemak</t>
+  </si>
+  <si>
+    <t>2HC0109021P2</t>
+  </si>
+  <si>
+    <t>Tropicana Slim Orange Cocoa 4 Sachet - Minuman Cokelat Jeruk Nikmat Tanpa Gula Pasir</t>
+  </si>
+  <si>
+    <t>2T00803164</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo school Chocolate Candy (10 sch)</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo School Original 400g - Susu Tinggi Kalsium Lebih Rendah Lemak</t>
+  </si>
+  <si>
+    <t>2HF0114021P2</t>
+  </si>
+  <si>
+    <t>2102900319 (D) TS SWT DIABETICS INDUSTRIAL 150S</t>
+  </si>
+  <si>
+    <t>HiLo School Strawberry 10 Sachet - Susu Tinggi Kalsium Lebih Rendah Lemak &amp; Gula</t>
+  </si>
+  <si>
+    <t>2HF0111003</t>
+  </si>
+  <si>
+    <t>BUY1GET 1 - Tropicana Slim French Butter Souffle Coffee 4 Sachet</t>
+  </si>
+  <si>
+    <t>2T01705164P2</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Sweetener Luo Han Guo 50 sachet</t>
+  </si>
+  <si>
+    <t>2T01813126P2</t>
+  </si>
+  <si>
+    <t>NutriSari Premium Jus Mangga 420g - Minuman Juice Kental Rasa Mangga Asli Vitamin C</t>
+  </si>
+  <si>
+    <t>BUY 2 GET 2 - Tropicana Slim RTD Almond Drink Chocolicious 190 ml</t>
+  </si>
+  <si>
+    <t>2T01402249P4</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim French Butter Souffle Coffee 4 Sachet</t>
+  </si>
+  <si>
+    <t>BUY 12 GET 12 - Tropicana Slim RTD Almond Drink Chocolicious 190 ml</t>
+  </si>
+  <si>
+    <t>2T01402249P24</t>
+  </si>
+  <si>
+    <t>BUY1GET1 - Tropicana Slim Sweetener Luo Han Guo 50 sachet - Pemanis Alami Natural untuk Batasi Gula</t>
+  </si>
+  <si>
+    <t>BUY1GET 1 - Tropicana Slim Sweetener Luo Han Guo 50 sachet - Pemanis Alami Natural untuk Batasi Gula</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Salted Caramel Cocoa 4 Sachet</t>
+  </si>
+  <si>
+    <t>2T00804164P2</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Yuzu Orange 40 sch</t>
+  </si>
+  <si>
+    <t>(E)1101573453</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Madu Kurma 40sch</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Blewah (40sch)</t>
+  </si>
+  <si>
+    <t>(E)1101979453</t>
+  </si>
+  <si>
+    <t>(E)1101522453</t>
+  </si>
+  <si>
+    <t>2LL1402249P4</t>
+  </si>
+  <si>
+    <t>Buy 2 Get 2 Free - L-Men UHT PlantProtein 2GO Ogura / Kacang Merah 190ml</t>
+  </si>
+  <si>
+    <t>2HF0112021P2</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo School 3+ Soya Multigrain Vanilla Malt 400g</t>
+  </si>
+  <si>
+    <t>Buy 12 Get 12 Free - L-Men UHT PlantProtein 2GO Ogura with 12g Protein &amp; 1,6g BCAA</t>
+  </si>
+  <si>
+    <t>2LL1402249P24</t>
+  </si>
+  <si>
+    <t>HiLo Teh Tarik (10 Sachet) - Teh Tarik Tinggi Kalsium Bervitamin</t>
+  </si>
+  <si>
+    <t>2HH0813443</t>
+  </si>
+  <si>
+    <t>NS W'DANK MADU TEMULAWAK PLS 12Rx10Sx11G</t>
+  </si>
+  <si>
+    <t>Near ED HiLo School Bubble Gum 500g</t>
+  </si>
+  <si>
+    <t>(E)2101459180</t>
+  </si>
+  <si>
+    <t>2HH0813443P2</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo Teh Tarik (10 Sachet) - Teh Tarik Tinggi Kalsium Bervitamin</t>
+  </si>
+  <si>
+    <t>BUY1 GET1 - Tropicana Slim Sweetener Luo Han Guo 50 sachet - Pemanis Alami Natural untuk Batasi Gula</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Collagen Drink Strawberry 200 gram</t>
+  </si>
+  <si>
+    <t>2T00805043P2</t>
+  </si>
+  <si>
+    <t>Hilo Milky Brown Sugar RTD 200ml (6pcs)</t>
+  </si>
+  <si>
+    <t>Buy 12 Get 12 Free - L-Men UHT PlantProtein 2GO Ogura / Kacang Merah 190ml</t>
+  </si>
+  <si>
+    <t>(Near ED) L-Men Gain Mass Taro 500g (Ags 23)</t>
+  </si>
+  <si>
+    <t>(E)2304008180</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo Multigrain Original 500g (Ags 23)</t>
+  </si>
+  <si>
+    <t>(E)2101469180</t>
+  </si>
+  <si>
+    <t>(E)2101816250</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo RTD Milky Vanilla Cookies 200ml (Ags 23)</t>
+  </si>
+  <si>
+    <t>(E)2HH1407250</t>
+  </si>
+  <si>
+    <t>(Near ED)HiLo RTD Chocolate Avocado 200ml</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo School Cotton Candy 200ml - Ready to Drink (24 Pcs) / ED Sept 2023</t>
+  </si>
+  <si>
+    <t>(E)2HF1403250P24</t>
+  </si>
+  <si>
+    <t>(NEAR ED) Lokalate Kopi Berondong 500 gram</t>
+  </si>
+  <si>
+    <t>(E)1101656360</t>
+  </si>
+  <si>
+    <t>(E)2105055180</t>
+  </si>
+  <si>
+    <t>(Near ED) Tropicana Slim Susu Low Fat Macchiato Coffee 500 gram / ED Nov 23</t>
+  </si>
+  <si>
+    <t>Tropicana Slim Peanut Almond Butter Spread Jam 300 gram</t>
+  </si>
+  <si>
+    <t>2T02703229</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo Gold Chocolate 1000g / ED Okt 23</t>
+  </si>
+  <si>
+    <t>Near ED - HiLo Teen Chocolate 1000 gr / ED Okt 23</t>
+  </si>
+  <si>
+    <t>(E)2101551195</t>
+  </si>
+  <si>
+    <t>(E)1101591453</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Gula Asem 40 Sachet</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Gula Asem 40 Sachet / ED Nov 23</t>
+  </si>
+  <si>
+    <t>Tropicana Slim Sweetener Luo Han Guo 50 sachet - Pemanis Alami Natural untuk Batasi Gula</t>
+  </si>
+  <si>
+    <t>2T01813126</t>
+  </si>
+  <si>
+    <t>(Near ED) Lokalate Kopi Berondong 500 gram - Tinggi Vitamin A Lebih Rendah Gula / ED Sept 23</t>
+  </si>
+  <si>
+    <t>(E)1101907331</t>
+  </si>
+  <si>
+    <t>Near ED - NutriSari Florida Orange (40sch)</t>
+  </si>
+  <si>
+    <t>(Near ED) L-Men Platinum Choco 800 gr</t>
+  </si>
+  <si>
+    <t>(E)2305551288</t>
+  </si>
+  <si>
+    <t>(Near ED) Lokalate Kopi Berondong 500 gram - Tinggi Vitamin A Lebih Rendah Gula</t>
+  </si>
+  <si>
+    <t>(E)2101618180</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo Teen Biscuit Caramel 500gr / ED Nov 23</t>
+  </si>
+  <si>
+    <t>(Near ED) Tropicana Slim Goldenmil Vanilla (6 sch)</t>
+  </si>
+  <si>
+    <t>(E)2101384106</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo RTD Chocolate Avocado 200ml</t>
+  </si>
+  <si>
+    <t>Buy 2 Get 2 Free - L-Men UHT PlantProtein 2GO Ogura / Kacang Merah 190ml (4pcs) with 12g Protein &amp; 1,6g BCAA / Serving - Suplemen Tinggi Protein Nabati Siap Minum</t>
+  </si>
+  <si>
+    <t>Buy 2 Get 2 Free - L-Men UHT PlantProtein 2GO Ogura with 12g Protein &amp; 1,6g BCAA</t>
+  </si>
+  <si>
+    <t>1N00838454</t>
+  </si>
+  <si>
+    <t>NutriSari Isotonik 40 Sachet – Minuman Isotonik Buah Jeruk Segar</t>
+  </si>
+  <si>
+    <t>Near ED BUY 1 GET 1 Tropicana Slim Extra Virgin Olive Oil 500 ml</t>
+  </si>
+  <si>
+    <t>(E)2104407P2</t>
+  </si>
+  <si>
+    <t>(E)2106317152</t>
+  </si>
+  <si>
+    <t>(Near ED) Tropicana Slim BROWNIES Instant Powder Cake Mix 230 g</t>
+  </si>
+  <si>
+    <t>L-Men Isopower Stargizing 30 Sachet with Creatine &amp; Vitamin B</t>
+  </si>
+  <si>
+    <t>2LM0801029</t>
+  </si>
+  <si>
+    <t>HiLo School Cokelat 30gr (10sch)</t>
   </si>
 </sst>
 </file>
@@ -2987,7 +3275,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Master tatanama"/>
@@ -16323,7 +16611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16331,10 +16619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E520"/>
+  <dimension ref="A1:E577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C520" sqref="C520:D520"/>
+    <sheetView tabSelected="1" topLeftCell="A552" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A577" sqref="A577:D577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25184,6 +25472,972 @@
       </c>
       <c r="E520" t="s">
         <v>760</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" t="s">
+        <v>762</v>
+      </c>
+      <c r="B521" t="s">
+        <v>761</v>
+      </c>
+      <c r="C521" s="3">
+        <v>103900</v>
+      </c>
+      <c r="D521" s="15">
+        <v>51950</v>
+      </c>
+      <c r="E521" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" t="s">
+        <v>764</v>
+      </c>
+      <c r="B522" t="s">
+        <v>763</v>
+      </c>
+      <c r="C522" s="3">
+        <v>191400</v>
+      </c>
+      <c r="D522" s="15">
+        <v>95700</v>
+      </c>
+      <c r="E522" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" t="s">
+        <v>766</v>
+      </c>
+      <c r="B523" t="s">
+        <v>765</v>
+      </c>
+      <c r="C523" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D523" s="15">
+        <v>16650</v>
+      </c>
+      <c r="E523" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" t="s">
+        <v>525</v>
+      </c>
+      <c r="B524" t="s">
+        <v>767</v>
+      </c>
+      <c r="C524" s="3">
+        <v>23100</v>
+      </c>
+      <c r="D524" s="15">
+        <v>11550</v>
+      </c>
+      <c r="E524" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" t="s">
+        <v>769</v>
+      </c>
+      <c r="B525" t="s">
+        <v>768</v>
+      </c>
+      <c r="C525" s="3">
+        <v>191400</v>
+      </c>
+      <c r="D525" s="15">
+        <v>95700</v>
+      </c>
+      <c r="E525" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526">
+        <v>2102900319</v>
+      </c>
+      <c r="B526" t="s">
+        <v>770</v>
+      </c>
+      <c r="C526" s="14">
+        <v>82500</v>
+      </c>
+      <c r="D526" s="15">
+        <v>82500</v>
+      </c>
+      <c r="E526">
+        <v>2102900319</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" t="s">
+        <v>772</v>
+      </c>
+      <c r="B527" t="s">
+        <v>771</v>
+      </c>
+      <c r="C527" s="3">
+        <v>45000</v>
+      </c>
+      <c r="D527" s="15">
+        <v>45000</v>
+      </c>
+      <c r="E527" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" t="s">
+        <v>774</v>
+      </c>
+      <c r="B528" t="s">
+        <v>773</v>
+      </c>
+      <c r="C528" s="3">
+        <v>32400</v>
+      </c>
+      <c r="D528" s="15">
+        <v>16200</v>
+      </c>
+      <c r="E528" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" t="s">
+        <v>776</v>
+      </c>
+      <c r="B529" t="s">
+        <v>775</v>
+      </c>
+      <c r="C529" s="3">
+        <v>115400</v>
+      </c>
+      <c r="D529" s="15">
+        <v>57700</v>
+      </c>
+      <c r="E529" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530">
+        <v>1100534034</v>
+      </c>
+      <c r="B530" t="s">
+        <v>777</v>
+      </c>
+      <c r="C530" s="3">
+        <v>46600</v>
+      </c>
+      <c r="D530" s="15">
+        <v>39960</v>
+      </c>
+      <c r="E530">
+        <v>1100534034</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" t="s">
+        <v>779</v>
+      </c>
+      <c r="B531" t="s">
+        <v>778</v>
+      </c>
+      <c r="C531" s="3">
+        <v>33400</v>
+      </c>
+      <c r="D531" s="15">
+        <v>16700</v>
+      </c>
+      <c r="E531" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" t="s">
+        <v>774</v>
+      </c>
+      <c r="B532" t="s">
+        <v>780</v>
+      </c>
+      <c r="C532" s="3">
+        <v>32400</v>
+      </c>
+      <c r="D532" s="15">
+        <v>16200</v>
+      </c>
+      <c r="E532" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" t="s">
+        <v>782</v>
+      </c>
+      <c r="B533" t="s">
+        <v>781</v>
+      </c>
+      <c r="C533" s="3">
+        <v>199800</v>
+      </c>
+      <c r="D533">
+        <v>99900</v>
+      </c>
+      <c r="E533" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" t="s">
+        <v>776</v>
+      </c>
+      <c r="B534" t="s">
+        <v>783</v>
+      </c>
+      <c r="C534" s="3">
+        <v>115400</v>
+      </c>
+      <c r="D534" s="15">
+        <v>57700</v>
+      </c>
+      <c r="E534" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" t="s">
+        <v>776</v>
+      </c>
+      <c r="B535" t="s">
+        <v>784</v>
+      </c>
+      <c r="C535" s="3">
+        <v>115400</v>
+      </c>
+      <c r="D535" s="15">
+        <v>57700</v>
+      </c>
+      <c r="E535" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" t="s">
+        <v>786</v>
+      </c>
+      <c r="B536" t="s">
+        <v>785</v>
+      </c>
+      <c r="C536" s="3">
+        <v>33300</v>
+      </c>
+      <c r="D536" s="15">
+        <v>16650</v>
+      </c>
+      <c r="E536" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" t="s">
+        <v>788</v>
+      </c>
+      <c r="B537" t="s">
+        <v>787</v>
+      </c>
+      <c r="C537" s="3">
+        <v>47300</v>
+      </c>
+      <c r="D537" s="15">
+        <v>23650</v>
+      </c>
+      <c r="E537" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" t="s">
+        <v>791</v>
+      </c>
+      <c r="B538" t="s">
+        <v>789</v>
+      </c>
+      <c r="C538" s="3">
+        <v>47300</v>
+      </c>
+      <c r="D538" s="15">
+        <v>23650</v>
+      </c>
+      <c r="E538" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" t="s">
+        <v>792</v>
+      </c>
+      <c r="B539" t="s">
+        <v>790</v>
+      </c>
+      <c r="C539" s="3">
+        <v>47300</v>
+      </c>
+      <c r="D539" s="15">
+        <v>23650</v>
+      </c>
+      <c r="E539" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" t="s">
+        <v>793</v>
+      </c>
+      <c r="B540" t="s">
+        <v>794</v>
+      </c>
+      <c r="C540" s="14">
+        <v>61600</v>
+      </c>
+      <c r="D540" s="15">
+        <v>30800</v>
+      </c>
+      <c r="E540" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" t="s">
+        <v>795</v>
+      </c>
+      <c r="B541" t="s">
+        <v>796</v>
+      </c>
+      <c r="C541" s="14">
+        <v>199800</v>
+      </c>
+      <c r="D541" s="15">
+        <v>166500</v>
+      </c>
+      <c r="E541" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" t="s">
+        <v>798</v>
+      </c>
+      <c r="B542" t="s">
+        <v>797</v>
+      </c>
+      <c r="C542" s="3">
+        <v>319680</v>
+      </c>
+      <c r="D542" s="15">
+        <v>159840</v>
+      </c>
+      <c r="E542" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" t="s">
+        <v>800</v>
+      </c>
+      <c r="B543" t="s">
+        <v>799</v>
+      </c>
+      <c r="C543" s="3">
+        <v>16095</v>
+      </c>
+      <c r="D543" s="3">
+        <v>16095</v>
+      </c>
+      <c r="E543" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544">
+        <v>1101618318</v>
+      </c>
+      <c r="B544" t="s">
+        <v>801</v>
+      </c>
+      <c r="C544" s="3">
+        <v>18000</v>
+      </c>
+      <c r="D544" s="15">
+        <v>18000</v>
+      </c>
+      <c r="E544">
+        <v>1101618318</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" t="s">
+        <v>803</v>
+      </c>
+      <c r="B545" t="s">
+        <v>802</v>
+      </c>
+      <c r="C545" s="3">
+        <v>80100</v>
+      </c>
+      <c r="D545" s="15">
+        <v>40050</v>
+      </c>
+      <c r="E545" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" t="s">
+        <v>804</v>
+      </c>
+      <c r="B546" t="s">
+        <v>805</v>
+      </c>
+      <c r="C546" s="14">
+        <v>32190</v>
+      </c>
+      <c r="D546" s="15">
+        <v>16095</v>
+      </c>
+      <c r="E546" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" t="s">
+        <v>776</v>
+      </c>
+      <c r="B547" t="s">
+        <v>806</v>
+      </c>
+      <c r="C547" s="14">
+        <v>115400</v>
+      </c>
+      <c r="D547" s="15">
+        <v>57700</v>
+      </c>
+      <c r="E547" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" t="s">
+        <v>808</v>
+      </c>
+      <c r="B548" t="s">
+        <v>807</v>
+      </c>
+      <c r="C548" s="3">
+        <v>366300</v>
+      </c>
+      <c r="D548" s="15">
+        <v>183150</v>
+      </c>
+      <c r="E548" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549">
+        <v>2101941250</v>
+      </c>
+      <c r="B549" t="s">
+        <v>809</v>
+      </c>
+      <c r="C549" s="14">
+        <v>37800</v>
+      </c>
+      <c r="D549" s="15">
+        <v>37800</v>
+      </c>
+      <c r="E549">
+        <v>2101941250</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" t="s">
+        <v>798</v>
+      </c>
+      <c r="B550" t="s">
+        <v>810</v>
+      </c>
+      <c r="C550" s="3">
+        <v>319680</v>
+      </c>
+      <c r="D550" s="15">
+        <v>159840</v>
+      </c>
+      <c r="E550" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" t="s">
+        <v>812</v>
+      </c>
+      <c r="B551" t="s">
+        <v>811</v>
+      </c>
+      <c r="C551" s="3">
+        <v>66950</v>
+      </c>
+      <c r="D551" s="15">
+        <v>66950</v>
+      </c>
+      <c r="E551" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" t="s">
+        <v>814</v>
+      </c>
+      <c r="B552" t="s">
+        <v>813</v>
+      </c>
+      <c r="C552" s="7">
+        <v>49650</v>
+      </c>
+      <c r="D552" s="7">
+        <v>49650</v>
+      </c>
+      <c r="E552" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" t="s">
+        <v>815</v>
+      </c>
+      <c r="B553" t="s">
+        <v>816</v>
+      </c>
+      <c r="C553" s="3">
+        <v>3850</v>
+      </c>
+      <c r="D553" s="3">
+        <v>3850</v>
+      </c>
+      <c r="E553" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" t="s">
+        <v>817</v>
+      </c>
+      <c r="B554" t="s">
+        <v>818</v>
+      </c>
+      <c r="C554" s="14">
+        <v>6300</v>
+      </c>
+      <c r="D554" s="15">
+        <v>3150</v>
+      </c>
+      <c r="E554" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" t="s">
+        <v>820</v>
+      </c>
+      <c r="B555" t="s">
+        <v>819</v>
+      </c>
+      <c r="C555" s="14">
+        <v>171800</v>
+      </c>
+      <c r="D555" s="15">
+        <v>85900</v>
+      </c>
+      <c r="E555" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" t="s">
+        <v>822</v>
+      </c>
+      <c r="B556" t="s">
+        <v>821</v>
+      </c>
+      <c r="C556" s="3">
+        <v>48500</v>
+      </c>
+      <c r="D556" s="15">
+        <v>24250</v>
+      </c>
+      <c r="E556" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" t="s">
+        <v>823</v>
+      </c>
+      <c r="B557" t="s">
+        <v>824</v>
+      </c>
+      <c r="C557" s="14">
+        <v>85400</v>
+      </c>
+      <c r="D557" s="15">
+        <v>42700</v>
+      </c>
+      <c r="E557" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" t="s">
+        <v>826</v>
+      </c>
+      <c r="B558" t="s">
+        <v>825</v>
+      </c>
+      <c r="C558" s="3">
+        <v>92400</v>
+      </c>
+      <c r="D558" s="15">
+        <v>66600</v>
+      </c>
+      <c r="E558" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" t="s">
+        <v>829</v>
+      </c>
+      <c r="B559" t="s">
+        <v>827</v>
+      </c>
+      <c r="C559" s="3">
+        <v>147800</v>
+      </c>
+      <c r="D559" s="15">
+        <v>73900</v>
+      </c>
+      <c r="E559" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" t="s">
+        <v>830</v>
+      </c>
+      <c r="B560" t="s">
+        <v>831</v>
+      </c>
+      <c r="C560" s="3">
+        <v>47300</v>
+      </c>
+      <c r="D560" s="15">
+        <v>23650</v>
+      </c>
+      <c r="E560" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" t="s">
+        <v>696</v>
+      </c>
+      <c r="B561" t="s">
+        <v>828</v>
+      </c>
+      <c r="C561" s="3">
+        <v>161600</v>
+      </c>
+      <c r="D561" s="15">
+        <v>80800</v>
+      </c>
+      <c r="E561" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" t="s">
+        <v>696</v>
+      </c>
+      <c r="B562" t="s">
+        <v>832</v>
+      </c>
+      <c r="C562" s="3">
+        <v>47300</v>
+      </c>
+      <c r="D562" s="15">
+        <v>23650</v>
+      </c>
+      <c r="E562" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" t="s">
+        <v>834</v>
+      </c>
+      <c r="B563" t="s">
+        <v>833</v>
+      </c>
+      <c r="C563" s="3">
+        <v>57700</v>
+      </c>
+      <c r="D563" s="15">
+        <v>57700</v>
+      </c>
+      <c r="E563" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" t="s">
+        <v>822</v>
+      </c>
+      <c r="B564" t="s">
+        <v>835</v>
+      </c>
+      <c r="C564" s="3">
+        <v>48500</v>
+      </c>
+      <c r="D564" s="15">
+        <v>24250</v>
+      </c>
+      <c r="E564" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" t="s">
+        <v>836</v>
+      </c>
+      <c r="B565" t="s">
+        <v>837</v>
+      </c>
+      <c r="C565" s="3">
+        <v>47300</v>
+      </c>
+      <c r="D565" s="7">
+        <v>23650</v>
+      </c>
+      <c r="E565" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" t="s">
+        <v>839</v>
+      </c>
+      <c r="B566" t="s">
+        <v>838</v>
+      </c>
+      <c r="C566" s="3">
+        <v>375200</v>
+      </c>
+      <c r="D566" s="15">
+        <v>187600</v>
+      </c>
+      <c r="E566" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" t="s">
+        <v>822</v>
+      </c>
+      <c r="B567" t="s">
+        <v>840</v>
+      </c>
+      <c r="C567" s="14">
+        <v>48500</v>
+      </c>
+      <c r="D567" s="15">
+        <v>24250</v>
+      </c>
+      <c r="E567" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" t="s">
+        <v>841</v>
+      </c>
+      <c r="B568" t="s">
+        <v>842</v>
+      </c>
+      <c r="C568" s="14">
+        <v>87700</v>
+      </c>
+      <c r="D568" s="15">
+        <v>43850</v>
+      </c>
+      <c r="E568" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" t="s">
+        <v>844</v>
+      </c>
+      <c r="B569" t="s">
+        <v>843</v>
+      </c>
+      <c r="C569" s="3">
+        <v>33500</v>
+      </c>
+      <c r="D569" s="15">
+        <v>16750</v>
+      </c>
+      <c r="E569" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" t="s">
+        <v>817</v>
+      </c>
+      <c r="B570" t="s">
+        <v>845</v>
+      </c>
+      <c r="C570" s="3">
+        <v>6300</v>
+      </c>
+      <c r="D570" s="15">
+        <v>1890</v>
+      </c>
+      <c r="E570" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" t="s">
+        <v>793</v>
+      </c>
+      <c r="B571" t="s">
+        <v>846</v>
+      </c>
+      <c r="C571" s="3">
+        <v>61600</v>
+      </c>
+      <c r="D571" s="15">
+        <v>61600</v>
+      </c>
+      <c r="E571" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" t="s">
+        <v>793</v>
+      </c>
+      <c r="B572" t="s">
+        <v>847</v>
+      </c>
+      <c r="C572" s="14">
+        <v>61600</v>
+      </c>
+      <c r="D572" s="15">
+        <v>61600</v>
+      </c>
+      <c r="E572" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" t="s">
+        <v>848</v>
+      </c>
+      <c r="B573" t="s">
+        <v>849</v>
+      </c>
+      <c r="C573" s="14">
+        <v>62000</v>
+      </c>
+      <c r="D573" s="15">
+        <v>45150</v>
+      </c>
+      <c r="E573" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" t="s">
+        <v>851</v>
+      </c>
+      <c r="B574" t="s">
+        <v>850</v>
+      </c>
+      <c r="C574" s="14">
+        <v>184800</v>
+      </c>
+      <c r="D574" s="15">
+        <v>92400</v>
+      </c>
+      <c r="E574" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" t="s">
+        <v>852</v>
+      </c>
+      <c r="B575" t="s">
+        <v>853</v>
+      </c>
+      <c r="C575" s="3">
+        <v>34600</v>
+      </c>
+      <c r="D575">
+        <v>17300</v>
+      </c>
+      <c r="E575" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" t="s">
+        <v>855</v>
+      </c>
+      <c r="B576" t="s">
+        <v>854</v>
+      </c>
+      <c r="C576" s="3">
+        <v>111000</v>
+      </c>
+      <c r="D576" s="15">
+        <v>88800</v>
+      </c>
+      <c r="E576" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577">
+        <v>2101477447</v>
+      </c>
+      <c r="B577" t="s">
+        <v>856</v>
+      </c>
+      <c r="C577" s="14">
+        <v>33300</v>
+      </c>
+      <c r="D577" s="15">
+        <v>33300</v>
       </c>
     </row>
   </sheetData>
@@ -36802,12 +38056,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36943,15 +38194,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39D06040-37D9-4EC0-838C-890481F092B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B16CB2-4938-4E1C-AE1D-3AE7D885C7BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36975,10 +38230,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B16CB2-4938-4E1C-AE1D-3AE7D885C7BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39D06040-37D9-4EC0-838C-890481F092B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>